--- a/data/processed/X_test_con_outliers_scal.xlsx
+++ b/data/processed/X_test_con_outliers_scal.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>charges</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1297066007558417</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06751642164090875</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4589011016855085</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1330712003674525</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5307936804337473</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>0.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05554464942804194</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01619405838716122</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2129241792466136</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04247126668513163</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.148729780229232</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2787874335185343</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09980070733904724</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0.2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04596540217715632</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7325283661132562</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7735629081450758</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>0.4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7008309652953926</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0.4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1411887624141936</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0.2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6807759651124682</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0.2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1156842038311432</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.335970596250853</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06439169937299338</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0.4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1028066435111415</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002186805188972234</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02656776482438694</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1620880257567194</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1594582718543899</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1874496144821816</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2876621290202913</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0.4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1398052286971456</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001567031629049372</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>0.8</v>
       </c>
       <c r="C32" t="n">
-        <v>0.239250183400183</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1744033770601867</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01461955087507664</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07436932309933386</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0289927628228618</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1029189395546573</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>0.2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02400977891116007</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0.2</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1011188069480931</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0.2</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3703500691380254</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0.2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6114639845664757</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05800984443051152</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0.2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02474979453803149</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0.2</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1716623487343056</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1789969033363292</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0.4</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06129924109990703</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>0.2</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1823942061742823</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>0.4</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03998560024057419</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.053192206781827</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6670241567615552</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>0.4</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05435622072243072</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2076642688130673</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0.2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.009721045824438307</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>0.2</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4450043345716437</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.009550061943608371</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1540946450328881</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>0.4</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3938679907441407</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04104725046360515</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6120688079871116</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1744931307663685</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1536173272670045</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2075625135124796</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0.4</v>
       </c>
       <c r="C63" t="n">
-        <v>0.05908091535611169</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4362937650826886</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>0.4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1121697603887606</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3566509825590489</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0.2</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04899493728239168</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0.8</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2736287407336676</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4045964351925804</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>0.2</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0402189159534955</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.009121750213736846</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0.2</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08065262750449201</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0.4</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1348462073046709</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.116507082923179</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0.4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08485630246349669</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>0.2</v>
       </c>
       <c r="C76" t="n">
-        <v>0.09810801157403473</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06128358005628182</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06059843339273366</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1680816602324046</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0.4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05250586687266764</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1298160792105387</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00438669947704164</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.438897358193406</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>0.4</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06556360158621979</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0.4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6082503114099779</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0.2</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7056908928048938</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6503113399286198</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0604465268006326</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1542151335575191</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>0.4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1169488920747768</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1649992229449557</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>0.4</v>
       </c>
       <c r="C92" t="n">
-        <v>0.229513922596123</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4215978354263677</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0.2</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3624380950948392</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0.4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0635973987980331</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -2353,7 +2353,7 @@
         <v>0.2</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6045269491250643</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>0.4</v>
       </c>
       <c r="C97" t="n">
-        <v>0.09360653276864361</v>
+        <v>0.5</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>0.2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3025462583179462</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01233420816304776</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2870296852579923</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0.4</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08590095361357018</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0.2</v>
       </c>
       <c r="C102" t="n">
-        <v>0.05539700175483678</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01010785749682557</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07462527956998383</v>
+        <v>0.5</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1828776699277857</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1953397489584552</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="C107" t="n">
-        <v>0.009852875469421825</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>0.4</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1075231131280396</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3265595868704473</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.009444801738222729</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2653,7 +2653,7 @@
         <v>0.2</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3598919261361042</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3572592233635368</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>0.2</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02936654396035367</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         <v>0.2</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1935430903478047</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0.2</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5950774085668478</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0.2</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1408220691719002</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0.2</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01396099154574357</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4740141211945704</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>0.4</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3474276712826603</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0.4</v>
       </c>
       <c r="C120" t="n">
-        <v>0.08446072405546008</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0.2</v>
       </c>
       <c r="C121" t="n">
-        <v>0.02712146413704651</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2873,7 +2873,7 @@
         <v>0.2</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0727655587015032</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0.4</v>
       </c>
       <c r="C123" t="n">
-        <v>0.09988233770240754</v>
+        <v>0.5</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>0.4</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1671524204160248</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01407264419643151</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>0.4</v>
       </c>
       <c r="C126" t="n">
-        <v>0.05852943172241934</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0.4</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1078115304343079</v>
+        <v>0.5</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0.2</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1012486014870649</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0.2</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1328456167559491</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1809415374170364</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01163813846247649</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04638042064661614</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07828904627245574</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -3113,7 +3113,7 @@
         <v>0.4</v>
       </c>
       <c r="C134" t="n">
-        <v>0.07669708581484992</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1108395396167303</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.07365816660967148</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0.2</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1826112841488692</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1835500536623049</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3419849746548426</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.680997302005951</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.588054168247204</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0674455321148327</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1422529496059099</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01953356730526898</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>0.4</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5262660183871334</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01652453536439741</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>0.4</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3608965754961889</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>0.4</v>
       </c>
       <c r="C148" t="n">
-        <v>0.06734225251821549</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.04293761505066565</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1678004975666315</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0.2</v>
       </c>
       <c r="C151" t="n">
-        <v>0.05903915908024464</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7408301329093785</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.02551186609400549</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0004054383421191292</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>0.2</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5935425530863248</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>0.2</v>
       </c>
       <c r="C156" t="n">
-        <v>0.08543351367638637</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.05526105634789504</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2022601090568022</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -3613,7 +3613,7 @@
         <v>0.2</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1208019634925345</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5420113946255833</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0.2</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6182339452875257</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3673,7 +3673,7 @@
         <v>0.4</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2031119554671419</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0.2</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02584885020477248</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0.4</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2255788629226607</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.02072883175465429</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04017514165284223</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>0.4</v>
       </c>
       <c r="C167" t="n">
-        <v>0.09825996615624559</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7760175811126261</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6906844863342786</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0.2</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6252480211229832</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02458261814370875</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0.2</v>
       </c>
       <c r="C172" t="n">
-        <v>0.131123557550879</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0.2</v>
       </c>
       <c r="C173" t="n">
-        <v>0.08323313704704398</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.07541018709769243</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>0.2</v>
       </c>
       <c r="C175" t="n">
-        <v>0.05072341089433981</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01679632857127793</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>0.2</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3392950053656025</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2468801922853534</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2067518255351138</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -4033,7 +4033,7 @@
         <v>0.4</v>
       </c>
       <c r="C180" t="n">
-        <v>0.5142638450090891</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.1742078938216133</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4620274938465662</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0.2</v>
       </c>
       <c r="C183" t="n">
-        <v>0.03327718724202505</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0.2</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1188559726744861</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -4133,7 +4133,7 @@
         <v>0.2</v>
       </c>
       <c r="C185" t="n">
-        <v>0.06329158711044533</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C186" t="n">
-        <v>0.06649810486023433</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.02820132538665507</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>0.2</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3116255447677228</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.03956872561127471</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>0.2</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1211626295023951</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1540991325148492</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C192" t="n">
-        <v>0.04027463572452791</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1008908428481981</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.02619183551943822</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0.4</v>
       </c>
       <c r="C195" t="n">
-        <v>0.6114936570953761</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1929279165178964</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1327729857582619</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0.2</v>
       </c>
       <c r="C198" t="n">
-        <v>0.02582092402783342</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0.4</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1785358534042726</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01750932901990462</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1270552000604303</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0.03342086231020967</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3785809374607629</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>0.4</v>
       </c>
       <c r="C204" t="n">
-        <v>0.05115081813265056</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>0.4</v>
       </c>
       <c r="C205" t="n">
-        <v>0.3476726590036742</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>0.2</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2596898360259108</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2514341039459522</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1253491256288785</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C209" t="n">
-        <v>0.05164056777714467</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1087063279929093</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>0.2</v>
       </c>
       <c r="C211" t="n">
-        <v>0.03394955552210212</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1925337843202871</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>0.2</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3427724209406982</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0.4</v>
       </c>
       <c r="C214" t="n">
-        <v>0.135202803102508</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2590077875713151</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>0.4</v>
       </c>
       <c r="C216" t="n">
-        <v>0.08901163918106796</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0.04905807355886581</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0.2</v>
       </c>
       <c r="C218" t="n">
-        <v>0.05950331779534555</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C219" t="n">
-        <v>0.209520147219198</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1872106025872458</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0.2</v>
       </c>
       <c r="C221" t="n">
-        <v>0.06707802141388942</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02086935167646817</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>0.09478985174764977</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D223" t="n">
         <v>1</v>
@@ -4913,7 +4913,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>0.08644319874443218</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
@@ -4933,7 +4933,7 @@
         <v>0.4</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6741155511710171</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0.01518522575360793</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D226" t="n">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5457902708934314</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0.009920175497963951</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0.008421681879610912</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>0.2</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1343077371246485</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -5053,7 +5053,7 @@
         <v>0.8</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1603249097926368</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0.00670935246595265</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1386406388752244</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>0.4</v>
       </c>
       <c r="C234" t="n">
-        <v>0.05543432097902751</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0.5971572088252564</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1442820820690811</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1139384537796709</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>0.4</v>
       </c>
       <c r="C238" t="n">
-        <v>0.04482488305555718</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0.07902681205790889</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -5233,7 +5233,7 @@
         <v>0.4</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6958484970740233</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.00899218179765527</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1965546665778868</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0.4</v>
       </c>
       <c r="C243" t="n">
-        <v>0.707058329012335</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D243" t="n">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0.03090783092898022</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0.2</v>
       </c>
       <c r="C245" t="n">
-        <v>0.03694592458112279</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0.00829923633457047</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0.02566567114231415</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
@@ -5393,7 +5393,7 @@
         <v>0.4</v>
       </c>
       <c r="C248" t="n">
-        <v>0.3099965427778497</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0.2</v>
       </c>
       <c r="C249" t="n">
-        <v>0.048065317612092</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D249" t="n">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1866028005262362</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0.008125234770565634</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>0.01225732638038155</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>0.09882697825071746</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D253" t="n">
         <v>1</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0.03317955014357072</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1774399789124365</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0.2</v>
       </c>
       <c r="C256" t="n">
-        <v>0.02598633292201086</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>0.2</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2781195639452237</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1793544475488784</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>0.2</v>
       </c>
       <c r="C259" t="n">
-        <v>0.03531187029009801</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D259" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1230984537376933</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D260" t="n">
         <v>1</v>
@@ -5653,7 +5653,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0811985686871995</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1128630621174063</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1999831524131111</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0.2785804985383385</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.7472411186618942</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D265" t="n">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>0.180589620248208</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0.2</v>
       </c>
       <c r="C267" t="n">
-        <v>0.08044855159609128</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1.019156267760677</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0.2</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1423570011112422</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D269" t="n">
         <v>0</v>
